--- a/InventorySystem/Book1.xlsx
+++ b/InventorySystem/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2023-0796\Videos\InventorySystem\InventorySystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\InventorySystem2.0\InventorySystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13C65E99-2DA5-4DF5-8835-4D5A9D3E4581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A335CEB-45F5-433E-A68F-13E3031BDCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B89EC71E-F7DE-408E-8099-165041734D40}"/>
   </bookViews>
@@ -34,9 +34,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ccsa</t>
+  </si>
+  <si>
+    <t>tytu</t>
+  </si>
+  <si>
+    <t>uttut</t>
+  </si>
+  <si>
+    <t>utu</t>
+  </si>
+  <si>
+    <t>ette</t>
   </si>
 </sst>
 </file>
@@ -388,9 +400,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF6FE97-3E76-4AA4-B8CD-6152901A30F7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -399,6 +413,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
